--- a/GestorPAT/src/resources/fileProcess.xlsx
+++ b/GestorPAT/src/resources/fileProcess.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DCA538BF-52E1-4B9B-9F90-E62061567738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3884A8CC-BB30-46DF-8477-BA93DF96A53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="14400" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="Process 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K18"/>
+  <oleSize ref="A1:L18"/>
 </workbook>
 </file>
 
@@ -462,9 +462,6 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
